--- a/data/input_excel/IEEE_toxic_span_detection.xlsx
+++ b/data/input_excel/IEEE_toxic_span_detection.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,11 @@
           <t>In this paper, we investigate and develop different techniques and deep learning models to detect the spans of characters within an Arabic content that drive a model to classify it as being toxic. Incorporating a model capable of providing such a detailed output into an automated toxicity detection system would significantly reduce the amount of time required to investigate measures taken by automated systems against contents classified as toxic. The dataset used in this study contains 1800 tweets and was originally used for sentiment analysis, however it was re-annotated on the character level to match the requirements of this work. The proposed approach has achieved 0.8289 on the modified F1-score metric and is based on both word2vec word embeddings and BERT-base pooled embeddings. To our knowledge, this is the first effort aiming at approaching this task in Arabic contents.</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Deep learning;Sentiment analysis;Toxicology;Communication systems;Bit error rate;Predictive models;Time measurement;toxic spans detection;Arabic tweets;BERT;BiLSTM;deep learning</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>10.1109/ICICS55353.2022.9811228</t>
@@ -516,256 +520,448 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022 International Conference on Intelligent Systems and Computer Vision (ISCV)</t>
+          <t>2023 IEEE International Conference on Big Data (BigData)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Detection of toxicity in social media based on Natural Language Processing methods</t>
+          <t>Exploring the Distinctive Tweeting Patterns of Toxic Twitter Users</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1-7</t>
+          <t>3624-3633</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Comments on important websites, such as popular news portals or social media platforms, are among the main ways of virtual interaction. Unfortunately, the behavior of users on these websites often becomes rude or disrespectful, by spreading toxic comments which can muddle the proper functioning of these sites. The aim of this research is to detect these toxic comments, and to find parts, toxic spans, of these comments to which toxicity can be attributed. Thus, we explored and compared various classifiers belonging to three categories “Machine Learning, Ensemble Learning and Deep Learning” and using different text representations. For detecting toxic spans in the comments, we applied an unsupervised method, we apply the Local Interpretable Model-Agnostic Explanations (LIME).The measures we used to evaluate our methods are accuracy, recall, and Fl-score. Our experiments showed that deep learning models performed unquestionably in the task of detecting toxic comments. The LSTM models with the Globe representation and LSTM with FastText were able to produce a higher F1 and accuracy compared to the other models used. For Toxic spans detction, the higher scores were obtained when combining LIME with classifier LSTM(GloVe) with an accuracy of 98% to identify the toxic spans.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>In the pursuit of bolstering user safety, social media platforms deploy active moderation strategies, including content removal and user suspension. These measures target users engaged in discussions marked by hate speech or toxicity, often linked to specific keywords or hashtags. Nonetheless, the increasing prevalence of toxicity indicates that certain users adeptly circumvent these measures.This study examines consistently toxic users on Twitter (rebranded as X) Rather than relying on traditional methods based on specific topics or hashtags, we employ a novel approach based on patterns of toxic tweets, yielding deeper insights into their behavior.We analyzed 38 million tweets from the timelines of 12,148 Twitter users and identified the top 1,457 users who consistently exhibit toxic behavior, relying on metrics like the Gini index and Toxicity score. By comparing their posting patterns to those of non-consistently toxic users, we have uncovered distinctive temporal patterns, including contiguous activity spans, inter-tweet intervals (referred to as “Burstiness”), and churn analysis. These findings provide strong evidence for the existence of a unique tweeting pattern associated with toxic behavior on Twitter.Crucially, our methodology transcends Twitter and can be adapted to various social media platforms, facilitating the identification of consistently toxic users based on their posting behavior. This research contributes to ongoing efforts to combat online toxicity and offers insights for refining moderation strategies in the digital realm. We are committed to open research and will provide our code and data to the research community.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Measurement;Toxicology;Codes;Social networking (online);Blogs;Refining;Hate speech;Social media;toxicity;tweeting pattern;temporal analysis</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>10.1109/ISCV54655.2022.9806096</t>
+          <t>10.1109/BigData59044.2023.10386402</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Taleb, Mohammed, Hamza, Alami, Zouitni, Mohamed, Burmani, Nabil, Lafkiar, Said, En-Nahnahi, Noureddine</t>
+          <t>Qayyum, Hina, Ikram, Muhammad, Zhao, Benjamin Zi Hao, Wood, Ian D., Kourtellis, Nicolas, Kaafar, Mohamed Ali</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023 ACM/IEEE International Symposium on Empirical Software Engineering and Measurement (ESEM)</t>
+          <t>2022 International Conference on Intelligent Systems and Computer Vision (ISCV)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ToxiSpanSE: An Explainable Toxicity Detection in Code Review Comments</t>
+          <t>Detection of toxicity in social media based on Natural Language Processing methods</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-12</t>
+          <t>1-7</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Background: The existence of toxic conversations in open-source platforms can degrade relationships among software developers and may negatively impact software product quality. To help mitigate this, some initial work has been done to detect toxic comments in the Software Engineering (SE) domain. Aims: Since automatically classifying an entire text as toxic or non-toxic does not help human moderators to understand the specific reason(s) for toxicity, we worked to develop an explainable toxicity detector for the SE domain. Method: Our explainable toxicity detector can detect specific spans of toxic content from SE texts, which can help human moderators by automatically highlighting those spans. This toxic span detection model, ToxiSpanSE, is trained with the 19,651 code review (CR) comments with labeled toxic spans. Our annotators labeled the toxic spans within 3,757 toxic CR samples. We explored several types of models, including one lexicon-based approach and five different transformer-based encoders. Results: After an extensive evaluation of all models, we found that our fine-tuned RoBERTa model achieved the best score with 0.88 $F1$, 0.87 precision, and 0.93 recall for toxic class tokens, providing an explainable toxicity classifier for the SE domain. Conclusion: Since ToxiSpanSE is the first tool to detect toxic spans in the SE domain, this tool will pave a path to combat toxicity in the SE community.</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Comments on important websites, such as popular news portals or social media platforms, are among the main ways of virtual interaction. Unfortunately, the behavior of users on these websites often becomes rude or disrespectful, by spreading toxic comments which can muddle the proper functioning of these sites. The aim of this research is to detect these toxic comments, and to find parts, toxic spans, of these comments to which toxicity can be attributed. Thus, we explored and compared various classifiers belonging to three categories “Machine Learning, Ensemble Learning and Deep Learning” and using different text representations. For detecting toxic spans in the comments, we applied an unsupervised method, we apply the Local Interpretable Model-Agnostic Explanations (LIME).The measures we used to evaluate our methods are accuracy, recall, and Fl-score. Our experiments showed that deep learning models performed unquestionably in the task of detecting toxic comments. The LSTM models with the Globe representation and LSTM with FastText were able to produce a higher F1 and accuracy compared to the other models used. For Toxic spans detction, the higher scores were obtained when combining LIME with classifier LSTM(GloVe) with an accuracy of 98% to identify the toxic spans.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Deep learning;Learning systems;Toxicology;Machine learning algorithms;Social networking (online);Transformers;Natural language processing;Toxic spans;Deep Learning;LIME;LSTM;Globe;fastText</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>10.1109/ESEM56168.2023.10304855</t>
+          <t>10.1109/ISCV54655.2022.9806096</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sarker, Jaydeb, Sultana, Sayma, Wilson, Steven R., Bosu, Amiangshu</t>
+          <t>Taleb, Mohammed, Hamza, Alami, Zouitni, Mohamed, Burmani, Nabil, Lafkiar, Said, En-Nahnahi, Noureddine</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019 IEEE Symposium on Computers and Communications (ISCC)</t>
+          <t>2023 ACM/IEEE International Symposium on Empirical Software Engineering and Measurement (ESEM)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Towards Chronic Liver Dysfunction Self-monitoring: a Proof-of-Concept Study</t>
+          <t>ToxiSpanSE: An Explainable Toxicity Detection in Code Review Comments</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1107-1112</t>
+          <t>1-12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>The liver is our very own chemical processing plant as it plays a vital role in maintaining the body's metabolic balance. Liver's health is assessed by a group of clinical tests (such as blood tests, ultrasonographic imaging, liver biopsy) most of which are invasive and burdensome for the patients. In the setting of severely scarred liver, toxic substances, such as ammonia, have fewer opportunities to be detoxified. Accumulation of ammonia in the systemic circulation and in the brain may result in Hepatic Encephalopathy (HE), a spectrum of neuropsychiatric abnormalities which entails changes in consciousness, intellectual functions, behavior. Minimal HE has attracted increasing attention, as it does not cause detectable changes in personality or behaviour, but the complex and sustained attention is impaired. Hence, it can be detected only by specific but biased, time-consuming and burdensome examinations, such as blood ammonia levels assessment and neuro-psychological tests. The obstrusivity of the majority of the liver function clinical tests, and, in case of minimal HE, the lack of reliable examinations, are encouraging the scientific community to look for alternative diagnostic methods. For this purpose, the exploitation of a non-invasive technique such as breath analysis, to identify chronic liver disease, discriminate among its degree of severity and detect the onset of HE, could be a step forward for clinical diagnosis. In this paper, we report a proof-of-concept study that aimed at detecting ammonia in the breath of patients suffering from chronic liver disease by means of a low-cost, easy-to-use, gas-sensors based device. Not only, we also aimed at investigating the possibility of discriminating the several severity degree of liver impairment on the basis of the detected ammonia.</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Background: The existence of toxic conversations in open-source platforms can degrade relationships among software developers and may negatively impact software product quality. To help mitigate this, some initial work has been done to detect toxic comments in the Software Engineering (SE) domain. Aims: Since automatically classifying an entire text as toxic or non-toxic does not help human moderators to understand the specific reason(s) for toxicity, we worked to develop an explainable toxicity detector for the SE domain. Method: Our explainable toxicity detector can detect specific spans of toxic content from SE texts, which can help human moderators by automatically highlighting those spans. This toxic span detection model, ToxiSpanSE, is trained with the 19,651 code review (CR) comments with labeled toxic spans. Our annotators labeled the toxic spans within 3,757 toxic CR samples. We explored several types of models, including one lexicon-based approach and five different transformer-based encoders. Results: After an extensive evaluation of all models, we found that our fine-tuned RoBERTa model achieved the best score with 0.88 $F1$, 0.87 precision, and 0.93 recall for toxic class tokens, providing an explainable toxicity classifier for the SE domain. Conclusion: Since ToxiSpanSE is the first tool to detect toxic spans in the SE domain, this tool will pave a path to combat toxicity in the SE community.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Toxicology;Codes;Detectors;Oral communication;Transformers;Software;Product design;toxicity;span detection;software engineering;natural language processing;explainability</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10.1109/ISCC47284.2019.8969605</t>
+          <t>10.1109/ESEM56168.2023.10304855</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Germanese, Danila, Colantonio, Sara, D’Acunto, Mario, Brunetto, Maurizia, Romagnoli, Veronica, Salvati, Antonio</t>
+          <t>Sarker, Jaydeb, Sultana, Sayma, Wilson, Steven R., Bosu, Amiangshu</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021 29th Conference of Open Innovations Association (FRUCT)</t>
+          <t>2024 IEEE Symposium on Security and Privacy (SP)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Multilingual Sentiment Analysis and Toxicity Detection for Text Messages in Russian</t>
+          <t>You Only Prompt Once: On the Capabilities of Prompt Learning on Large Language Models to Tackle Toxic Content</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>770-787</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>In this paper, we discuss an approach to sentiment analysis and emotion identification for user comments. The solution is threefold: 1) topic detection, 2) sentiment evaluation, 3) toxicity detection and toxic spans localization. The lack of significantly large training data for the Russian language is handled by utilizing multilingual word embeddings, the adversarial domain adaptation model, and data augmentation. We present an overview of various preprocessing pipelines for topic modeling and highlight the LDA- Mallet model which demonstrates the best performance. For sentiment analysis and toxicity detection, we examine the efficacy of a support vector machine and a deep neural network with a multilingual language model and adversarial domain adaptation that allows us to train algorithms with datasets in the English language. All methods are tested with a dataset of user comments to various online-courses and adjusted to provide support for the development of a virtual dialogue assistant for conducting virtual exams.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>The spread of toxic content online is an important problem that has adverse effects on user experience online and in our society at large. Motivated by the importance and impact of the problem, research focuses on developing solutions to detect toxic content, usually leveraging machine learning (ML) models trained on human-annotated datasets. While these efforts are important, these models usually do not generalize well and they can not cope with new trends (e.g., the emergence of new toxic terms). Currently, we are witnessing a shift in the approach to tackling societal issues online, particularly leveraging large language models (LLMs) like GPT-3 or T5 that are trained on vast corpora and have strong generalizability. In this work, we investigate how we can use LLMs and prompt learning to tackle the problem of toxic content, particularly focusing on three tasks; 1) Toxicity Classification, 2) Toxic Span Detection, and 3) Detoxification. We perform an extensive evaluation over five model architectures and eight datasets demonstrating that LLMs with prompt learning can achieve similar or even better performance compared to models trained on these specific tasks. We find that prompt learning achieves around 10% improvement in the toxicity classification task compared to the baselines, while for the toxic span detection task we find better performance to the best baseline (0.643 vs. 0.640 in terms of F1-score). Finally, for the detoxification task, we find that prompt learning can successfully reduce the average toxicity score (from 0.775 to 0.213) while preserving semantic meaning.1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Privacy;Toxicology;Large language models;Semantics;Predictive models;Market research;User experience</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10.23919/FRUCT52173.2021.9435584</t>
+          <t>10.1109/SP54263.2024.00061</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bogoradnikova, Darya, Makhnytkina, Olesia, Matveev, Anton, Zakharova, Anastasia, Akulov, Artem</t>
+          <t>He, Xinlei, Zannettou, Savvas, Shen, Yun, Zhang, Yang</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2024 4th International Conference on Intelligent Technologies (CONIT)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Domain Specific Embeddings in RNN Frameworks for Hate Span Detection and Classification</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1-4</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>The unrestricted use of the internet has led to a significant rise in the dissemination of hate speech online, posing serious threats of harm and violence to individuals and society at large. Social media data often comprises informal and fragmented sentences, interspersed with multiple languages. While numerous researchers are dedicated to identifying and mitigating hate speech in social media content, existing approaches primarily focus on detecting hate speech as a whole, rather than targeting specific hateful words or phrases. To encourage research in this direction, a shared task was formulated during SemEval 2021, a task called Toxic Span Identification, to detect hateful words present in a sentence. Leveraging the dataset provided by the organizers of the task, our approach entails constructing a model comprising three fundamental layers: feature extraction, a Bidirectional Long Short-Term Memory (BiLSTM) layer, and at last, a Conditional Random Field (CRF) layer. Among various embedding techniques, we found that GloVe embeddings yielded superior results with our base model, achieving an F1 score of ${6 1. 2 3 \%}$ when combined with dropout layer. Further Toxic BERT and HateBERT models were used to classify the comments as hateful or non-hateful, HateBERT outperformed the Toxic BERT model.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Recurrent neural networks;Social networking (online);Hate speech;Bidirectional control;Feature extraction;Encoding;Conditional random fields;GloVe;hatespans;HateBERT;ToxicBERT;BiLSTM;CRF</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10.1109/CONIT61985.2024.10626508</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Rachh, Rashmi, Kavatagi, Sanjana, Allagi, Shridhar</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2019 IEEE Symposium on Computers and Communications (ISCC)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Towards Chronic Liver Dysfunction Self-monitoring: a Proof-of-Concept Study</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1107-1112</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>The liver is our very own chemical processing plant as it plays a vital role in maintaining the body's metabolic balance. Liver's health is assessed by a group of clinical tests (such as blood tests, ultrasonographic imaging, liver biopsy) most of which are invasive and burdensome for the patients. In the setting of severely scarred liver, toxic substances, such as ammonia, have fewer opportunities to be detoxified. Accumulation of ammonia in the systemic circulation and in the brain may result in Hepatic Encephalopathy (HE), a spectrum of neuropsychiatric abnormalities which entails changes in consciousness, intellectual functions, behavior. Minimal HE has attracted increasing attention, as it does not cause detectable changes in personality or behaviour, but the complex and sustained attention is impaired. Hence, it can be detected only by specific but biased, time-consuming and burdensome examinations, such as blood ammonia levels assessment and neuro-psychological tests. The obstrusivity of the majority of the liver function clinical tests, and, in case of minimal HE, the lack of reliable examinations, are encouraging the scientific community to look for alternative diagnostic methods. For this purpose, the exploitation of a non-invasive technique such as breath analysis, to identify chronic liver disease, discriminate among its degree of severity and detect the onset of HE, could be a step forward for clinical diagnosis. In this paper, we report a proof-of-concept study that aimed at detecting ammonia in the breath of patients suffering from chronic liver disease by means of a low-cost, easy-to-use, gas-sensors based device. Not only, we also aimed at investigating the possibility of discriminating the several severity degree of liver impairment on the basis of the detected ammonia.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ammonia;Liver diseases;Gas detectors;Blood;Sensor arrays;Breath analysis;Liver function;Liver disease;Gas sensors;Data analysis;Biomedical Devices.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10.1109/ISCC47284.2019.8969605</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Germanese, Danila, Colantonio, Sara, D’Acunto, Mario, Brunetto, Maurizia, Romagnoli, Veronica, Salvati, Antonio</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2021 29th Conference of Open Innovations Association (FRUCT)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Multilingual Sentiment Analysis and Toxicity Detection for Text Messages in Russian</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>In this paper, we discuss an approach to sentiment analysis and emotion identification for user comments. The solution is threefold: 1) topic detection, 2) sentiment evaluation, 3) toxicity detection and toxic spans localization. The lack of significantly large training data for the Russian language is handled by utilizing multilingual word embeddings, the adversarial domain adaptation model, and data augmentation. We present an overview of various preprocessing pipelines for topic modeling and highlight the LDA- Mallet model which demonstrates the best performance. For sentiment analysis and toxicity detection, we examine the efficacy of a support vector machine and a deep neural network with a multilingual language model and adversarial domain adaptation that allows us to train algorithms with datasets in the English language. All methods are tested with a dataset of user comments to various online-courses and adjusted to provide support for the development of a virtual dialogue assistant for conducting virtual exams.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Training;Support vector machines;Sentiment analysis;Adaptation models;Technological innovation;Toxicology;Pipelines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>10.23919/FRUCT52173.2021.9435584</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bogoradnikova, Darya, Makhnytkina, Olesia, Matveev, Anton, Zakharova, Anastasia, Akulov, Artem</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Standoff and Miniature Chemical Vapor Detectors Based on Tunable Diode Laser Absorption Spectroscopy</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>639-646</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Trace gas sensing and analysis by tunable diode laser absorption spectroscopy (TDLAS) has become a robust and reliable technology accepted for industrial process monitoring and control, quality assurance, environmental sensing, plant safety, and infrastructure security. Sensors incorporating well-packaged wavelength-stabilized near-IR (1.2-2.0 ¿m) laser sources sense over a dozen toxic or industrially-important gases. Recently developed mid-IR lasers, particularly quantum cascade devices spanning wavelengths of 3-12 ¿m, can sense in real-time sub-parts per million concentrations of many hydrocarbons.A large emerging application for TDLAS is standoff sensing of chemical vapors, e.g., leaks from natural gas pipelines. Employing a 10-mW DFB laser, the eye-safe, battery-powered, 6-lb handheld remote methane leak detector illuminates a noncooperative topographic surface and analyzes returned scattered light to deduce the presence of excess methane. For aerial surveying, replacing the handheld transceiver with a large-aperture telescope and adding an erbium-doped fiber amplifier to the laser transmitter extends the standoff distance to 3000 m. By selecting a laser source having an appropriate wavelength, the standoff TDLAS tool detects trace concentrations of nonmethane hazardous gases, including several high-priority toxic industrial compounds and emissions from illicit chemical production laboratories. This paper also describes concepts for miniature integrated optic TDLAS sensors that combine a laser source, sampling section, and detector on a monolithic semiconductor materials system substrate. Such chip-scale low-power integrated optic gas-phase chemical sensors may enable low-cost mass production, so that many hundreds or thousands of such sensors can be distributed cost-effectively over a wide area of interest and communicate via wireless networks.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chemical lasers;Tunable circuits and devices;Diode lasers;Absorption;Spectroscopy;Gas lasers;Chemical sensors;Quantum cascade lasers;Gas industry;Erbium-doped fiber lasers;Chemical sensors;spectroscopy;standoff detection;tunable diode laser absorption spectroscopy (TDLAS)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10.1109/JSEN.2009.2038536</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Frish, Michael B., Wainner, Richard T., Laderer, Matthew C., Green, B. David, Allen, Mark G.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>2018 19th IEEE International Conference on Mobile Data Management (MDM)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Targets and Shapes Tracking (Advanced Seminar)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>7-10</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>The topics of tracking moving objects and moving shapes have been extensively researched in multiple communities – from Moving Objects Databases (MOD) and spatio-temporal data management, through image/video processing and traffic management, to environmental and ecology studies. This paper gives a summary of the topics discussed in the advanced seminar on tracking objects and shapes, as well as an overview of its proposed structure. After a brief introduction and motivation-survey of different research fields and societal applications, the first part of the seminar will give a historic survey of the fundamental techniques for tracking mobile objects. The second part will give an overview of the approaches popular in MOD and spatiotemporal data management communities (tracking and querying, streaming data, map-matching, etc.). The third part is the central one – discussing the issues and solutions in distributed tracking of moving objects and shapes: from topological predicates and trends detection, through tracking deformable shapes, to specifics of indoor tracking. The fourth major part is intended to be a "potpourri-style" review of different application contexts and the popular approaches for tracking individual objects and shapes – spanning from collective motion analysis in social networks and animal herds, through toxic elements, pollutants, and geoprocesses (landslides), to different approaches for visual analytics in this context. The main objective of this advanced seminar is to provide a cohesive overview of the different perspectives on motion tracking; the corresponding approaches for its effective management; and possibilities for other research directions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sensors;Shape;Radar tracking;Seminars;Wireless sensor networks;Target tracking;moving objects;objects tracking;mobile shapes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>10.1109/MDM.2018.00015</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Trajcevski, Goce, Scheuermann, Peter</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Standoff and Miniature Chemical Vapor Detectors Based on Tunable Diode Laser Absorption Spectroscopy</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>639-646</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Trace gas sensing and analysis by tunable diode laser absorption spectroscopy (TDLAS) has become a robust and reliable technology accepted for industrial process monitoring and control, quality assurance, environmental sensing, plant safety, and infrastructure security. Sensors incorporating well-packaged wavelength-stabilized near-IR (1.2-2.0 ¿m) laser sources sense over a dozen toxic or industrially-important gases. Recently developed mid-IR lasers, particularly quantum cascade devices spanning wavelengths of 3-12 ¿m, can sense in real-time sub-parts per million concentrations of many hydrocarbons.A large emerging application for TDLAS is standoff sensing of chemical vapors, e.g., leaks from natural gas pipelines. Employing a 10-mW DFB laser, the eye-safe, battery-powered, 6-lb handheld remote methane leak detector illuminates a noncooperative topographic surface and analyzes returned scattered light to deduce the presence of excess methane. For aerial surveying, replacing the handheld transceiver with a large-aperture telescope and adding an erbium-doped fiber amplifier to the laser transmitter extends the standoff distance to 3000 m. By selecting a laser source having an appropriate wavelength, the standoff TDLAS tool detects trace concentrations of nonmethane hazardous gases, including several high-priority toxic industrial compounds and emissions from illicit chemical production laboratories. This paper also describes concepts for miniature integrated optic TDLAS sensors that combine a laser source, sampling section, and detector on a monolithic semiconductor materials system substrate. Such chip-scale low-power integrated optic gas-phase chemical sensors may enable low-cost mass production, so that many hundreds or thousands of such sensors can be distributed cost-effectively over a wide area of interest and communicate via wireless networks.</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10.1109/JSEN.2009.2038536</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Frish, Michael B., Wainner, Richard T., Laderer, Matthew C., Green, B. David, Allen, Mark G.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gas Spectroscopy System for Breath Analysis at mm-wave/THz Using SiGe BiCMOS Circuits</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1807-1818</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>The unique fingerprint spectra of volatile organic compounds for breath analysis and toxic industrial chemicals make an mm-wave (mmW)/THz gas sensor very specific and sensitive. This paper reviews and updates results of our recent work on sensor systems for gas spectroscopy based on integrated transmitter (TX) and receiver (RX), which are developed and fabricated in IHP's 0.13 μm SiGe BiCMOS technology. In this paper, we present an mmW/THz spectroscopic system including a folded gas absorption cell of 1.9 m length between the TX and RX modules. We discuss the results and specifications of our sensor system based on integrated TX and RX. We demonstrate TXs and RXs with integrated antennas for spectroscopy at 238-252 GHz and 494-500 GHz using integer-N phase-locked loops (PLLs). We present a compact system by using fractional-N PLLs allowing frequency ramps for the TX and RX, and for TX with superimposed frequency shift keying or reference frequency modulation. In another configuration, the voltage controlled oscillators of the TX and RX local oscillator are tuned directly without PLLs by applying external voltages. Further developments of our system are aimed at realizing an even wider frequency span by switching between frequency bands, and to use a more compact gas absorption cell.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Spectroscopy;Absorption;Frequency shift keying;Phase locked loops;Detectors;Silicon germanium;Gas spectroscopy;mm-wave (mmW);receiver;sensor;SiGe;terahertz (THz);transmitter</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>10.1109/TMTT.2017.2650915</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Schmalz, Klaus, Rothbart, Nick, Neumaier, Philipp F.-X., Borngräber, Johannes, Hübers, Heinz-Wilhelm, Kissinger, Dietmar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Occurrence and Spatial Extent of HABs on the West Florida Shelf 2002–Present</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>2080-2084</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Harmful algal blooms (HABs) can lead to severe economic and ecological impacts in coastal areas and can threaten marine life and human health. About three quarters of these toxic blooms are caused by dinoflagellate species. One dinoflagellate species, i.e., Karenia brevis, blooms nearly every year in the Gulf of Mexico, particularly on the West Florida Shelf (WFS), where these blooms cause millions of dollars in socioeconomic damage. In this letter, we use the red band difference (RBD) bloom detection technique for detection of low backscattering phytoplankton blooms, such as K. brevis, and conduct time-series analyses of the spatial extent of these blooms using Moderate Resolution Imaging Spectroradiometer (MODIS) monthly mean data spanning July 2002 (sensor inception) to September 2014. The time-series results show that the RBD successfully detects the documented HABs in the region, illustrating the seasonal and interannual variability, including the extensive blooms of 2005 and 2014.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Sea measurements;Oceans;MODIS;Remote sensing;Satellites;Noise;Clouds;Harmful algal blooms (HABs);karenia brevis;low backscattering blooms (LBBs);phytoplankton;red band difference (RBD);remote sensing;Harmful algal blooms (HABs);karenia brevis;low backscattering blooms (LBBs);phytoplankton;red band difference (RBD);remote sensing</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>10.1109/LGRS.2015.2448453</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Amin, Ruhul, Penta, Bradley, deRada, Sergio</t>
         </is>
